--- a/data/financial_statements/sofp/UAL.xlsx
+++ b/data/financial_statements/sofp/UAL.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -137,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -494,3259 +608,3331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>16459000000</v>
+      </c>
+      <c r="C2">
         <v>18756000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>20118000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>18720000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>18443000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>19676000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>21322000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>13229000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>11938000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>13778000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>7463000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5221000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4944000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5126000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>5444000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4067000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3950000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4935000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5071000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4475000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>3798000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4328000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4649000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4379000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4428000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>4856000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4685000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3972000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>5196000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>5599000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>4985000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>5608000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>4384000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>5546000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5844000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5073000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>5152000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>5782000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>6004000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>5440000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>1801000000</v>
+      </c>
+      <c r="C3">
         <v>2034000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2217000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2062000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1663000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1709000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1793000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1389000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1295000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1171000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>857000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>792000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1364000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1617000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1762000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1789000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1426000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1752000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1840000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1760000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1340000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1603000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1499000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1429000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1176000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1481000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1450000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1581000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1128000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1513000000</v>
-      </c>
-      <c r="AE3">
-        <v>1471000000</v>
       </c>
       <c r="AF3">
         <v>1471000000</v>
       </c>
       <c r="AG3">
+        <v>1471000000</v>
+      </c>
+      <c r="AH3">
         <v>1146000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1559000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1665000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1609000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1503000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1693000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1732000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1679000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1109000000</v>
+      </c>
+      <c r="C4">
         <v>1116000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1153000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1068000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>983000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>955000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>912000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>918000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>932000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>961000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>955000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1070000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1072000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1065000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>996000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>972000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>985000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1011000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>942000000</v>
-      </c>
-      <c r="T4">
-        <v>924000000</v>
       </c>
       <c r="U4">
         <v>924000000</v>
       </c>
       <c r="V4">
+        <v>924000000</v>
+      </c>
+      <c r="W4">
         <v>937000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>882000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>900000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>873000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>842000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>798000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>759000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>738000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>704000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>656000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>666000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>700000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>685000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>641000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>667000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>646000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>555000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>690000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>783000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>883000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>762000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>745000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>717000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>646000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>483000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>635000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>566000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>732000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>822000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>814000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>26000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>156000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>181000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1029000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>577000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>20058000000</v>
+      </c>
+      <c r="C6">
         <v>22689000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>24371000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>22612000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>21834000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>23057000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>24673000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>16019000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>14800000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>16476000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>10041000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>7905000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>8194000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>8533000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>8910000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>7608000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>7094000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>8671000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>8881000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>8287000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>7133000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>7877000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>8248000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>7724000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>7309000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>7970000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>7844000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>7224000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>7828000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>10097000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>8793000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>9509000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>7547000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>9225000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>9619000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>8788000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>8702000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>9389000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>9621000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>9148000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>34448000000</v>
+      </c>
+      <c r="C7">
         <v>32506000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>31853000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>31881000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32074000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>32128000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>32331000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>31915000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>31466000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>31650000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>31735000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>31811000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>30170000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>29332000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>28918000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>28586000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>27399000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>27308000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>26946000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>26739000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>26208000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>25629000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>25017000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>24241000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>23318000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>22645000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>22388000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>22006000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>21580000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>21176000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>20701000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>19862000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>19467000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>18943000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>18857000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>18384000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>18047000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>17766000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>17584000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>17437000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>1373000000</v>
+      </c>
+      <c r="C8">
         <v>1285000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1297000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1401000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1420000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1336000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1407000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1107000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1000000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>824000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>798000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>763000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1180000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1131000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1139000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1098000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>966000000</v>
-      </c>
-      <c r="R8">
-        <v>848000000</v>
       </c>
       <c r="S8">
         <v>848000000</v>
       </c>
       <c r="T8">
+        <v>848000000</v>
+      </c>
+      <c r="U8">
         <v>853000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>806000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>882000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>579000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9">
         <v>76000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>31000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>144000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>141000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>149000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>671000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>529000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>518000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>512000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>516000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>46000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>7289000000</v>
+      </c>
+      <c r="C10">
         <v>7299000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>7309000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>7319000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>7330000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>7342000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>7354000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>7367000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>7365000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>7379000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>7375000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>7468000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>7532000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>7637000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>7652000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>7667000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>7682000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>7905000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>7922000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>8044000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>8062000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>8081000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>8115000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>8135000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>8155000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>8177000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>8200000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>8635000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>8659000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>8716000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>8743000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>8780000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>8807000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>8853000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>8895000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>8925000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>8959000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>9010000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>9046000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>9084000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>91000000</v>
+      </c>
+      <c r="C11">
         <v>701000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>907000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1032000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>659000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>519000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>647000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>520000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>131000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>127000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>598000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>655000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>863000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1392000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1800000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>2037000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>846000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>210000000</v>
+      </c>
+      <c r="C12">
         <v>208000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>204000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>214000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>213000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>215000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>216000000</v>
-      </c>
-      <c r="H12">
-        <v>218000000</v>
       </c>
       <c r="I12">
         <v>218000000</v>
       </c>
       <c r="J12">
+        <v>218000000</v>
+      </c>
+      <c r="K12">
         <v>172000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>73000000</v>
-      </c>
-      <c r="L12">
-        <v>106000000</v>
       </c>
       <c r="M12">
         <v>106000000</v>
       </c>
       <c r="N12">
+        <v>106000000</v>
+      </c>
+      <c r="O12">
         <v>100000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>105000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>103000000</v>
-      </c>
-      <c r="Q12">
-        <v>105000000</v>
       </c>
       <c r="R12">
         <v>105000000</v>
       </c>
       <c r="S12">
+        <v>105000000</v>
+      </c>
+      <c r="T12">
         <v>94000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>95000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>91000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>96000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>800000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>747000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>124000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>672000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>652000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>708000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>757000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1034000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1130000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>940000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>774000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>990000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1076000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1088000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1104000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1095000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1217000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1173000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>47300000000</v>
+      </c>
+      <c r="C13">
         <v>46279000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>46010000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>46426000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>46341000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>46237000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>46376000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>45643000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>44748000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>44713000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>44860000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>45150000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>44417000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>43666000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>43240000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>43031000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>41930000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>36166000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>35810000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>35731000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>35213000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>34688000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>34059000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>33721000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>32831000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>32357000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>32632000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>33149000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>33033000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>31772000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>30574000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>29582000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>29048000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>28786000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>28828000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>28397000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>28110000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>27871000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>27847000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>27694000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>67358000000</v>
+      </c>
+      <c r="C14">
         <v>68968000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>70381000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>69038000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>68175000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>69294000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>71049000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>61662000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>59548000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>61189000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>54901000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>53055000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>52611000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>52199000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>52150000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>50639000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>49024000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>44837000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>44691000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>44018000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>42346000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>42565000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>42307000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>41445000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>40140000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>40327000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>40476000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>40373000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>40861000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>41869000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>39367000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>39091000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>36595000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>38011000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>38447000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>37185000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>36812000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>37260000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>37468000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>36842000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>3395000000</v>
+      </c>
+      <c r="C15">
         <v>3534000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3755000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2966000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2562000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2199000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2218000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1838000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1595000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1831000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1725000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2436000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2703000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2848000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3033000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2707000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2363000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2581000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2703000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2399000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>2196000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2231000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>2225000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>2135000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2139000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>2138000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>2240000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>2065000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1869000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>2082000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>2322000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>2074000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1882000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>2085000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>2441000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>2332000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>2087000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>2126000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2298000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>2293000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>1971000000</v>
+      </c>
+      <c r="C16">
         <v>1841000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1943000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2008000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2121000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2207000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2228000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2267000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1960000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1994000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1669000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1647000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2271000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2104000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1871000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1660000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2184000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2004000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1782000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1637000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2166000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1983000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1812000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1569000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>2307000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>2282000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1969000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1822000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>2350000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>2187000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1846000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1597000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>1818000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1651000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1460000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1363000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1696000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1844000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1480000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1455000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>2934000000</v>
+      </c>
+      <c r="C17">
         <v>3861000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>3926000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>4179000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3836000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2269000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1881000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1783000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1929000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4584000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>4454000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>4055000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1407000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1243000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1255000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1201000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1230000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>910000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>887000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1655000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1565000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1516000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1436000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>716000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>849000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>969000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>1272000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>1295000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1224000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>1312000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1047000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1700000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1313000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1340000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1168000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>1178000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1368000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>957000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>909000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1079000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>104000000</v>
+      </c>
+      <c r="C18">
         <v>72000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>78000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>64000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>76000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>116000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>144000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>179000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>182000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>136000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>93000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>59000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>46000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>92000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>117000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>133000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>123000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>136000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>117000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>124000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>128000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>125000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>115000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>113000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>116000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>124000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>128000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>114000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>135000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>137000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>111000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>112000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>110000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>99000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>98000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>112000000</v>
-      </c>
-      <c r="AK18">
-        <v>117000000</v>
       </c>
       <c r="AL18">
         <v>117000000</v>
       </c>
       <c r="AM18">
+        <v>117000000</v>
+      </c>
+      <c r="AN18">
         <v>119000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>121000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>2693000000</v>
+      </c>
+      <c r="C19">
         <v>2642000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2590000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2516000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2239000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2129000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2099000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1251000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>908000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>772000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>840000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1355000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2440000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>2537000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2435000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>2388000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2286000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2275000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2206000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2221000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2192000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>1992000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>2069000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2120000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2135000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>2168000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2132000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>2098000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>2117000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2138000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>2116000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>2059000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>2058000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>2090000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>2147000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>2318000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>2369000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>2378000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>2343000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>2312000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>8334000000</v>
+      </c>
+      <c r="C20">
         <v>9493000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>10609000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>9517000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>6914000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>7446000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>8911000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>6226000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5539000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>5851000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>7016000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>5847000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>5385000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>6089000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>6730000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>6607000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>4934000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>5778000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>6397000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>6147000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>4516000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>5240000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>5939000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>6009000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>4740000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>5568000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>6234000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>5954000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>4595000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>5303000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>6368000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>5779000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>4633000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>5599000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>6020000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>5788000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>4470000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>5182000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>5778000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>5632000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>19992000000</v>
+      </c>
+      <c r="C21">
         <v>21989000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>23444000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>21788000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>18304000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>16935000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>18064000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>14167000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>12725000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>15791000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>16395000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>16087000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>14938000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>15691000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>16078000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>15335000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>13839000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>13684000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>14092000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>14183000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>12763000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>13087000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>13596000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>12662000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>12286000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>13253000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>13982000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>13380000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>12414000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>13488000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>13810000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>13969000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>12508000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>12864000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>13334000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>13091000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>12107000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>12604000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>12927000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>12892000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>28398000000</v>
+      </c>
+      <c r="C22">
         <v>28602000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>29380000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>29875000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>30580000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>31770000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>37473000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>26089000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>25060000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>22575000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>14634000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>13567000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>18311000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>13086000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>13140000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>12970000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>17715000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>13334000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>13499000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>13185000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>12699000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>12302000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>11612000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>12014000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>10740000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>10364000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>10015000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>10197000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>10400000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>10672000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>10501000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>10474000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>10524000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>10655000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>11054000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>10834000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>10924000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>10985000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>10938000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>10947000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>3982000000</v>
+      </c>
+      <c r="C23">
         <v>3936000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>3905000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>3901000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>4043000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4088000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>4086000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>4858000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>5067000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>5063000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>4830000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>4133000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2836000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2682000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2763000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2750000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2719000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>2712000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2783000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>2716000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>2591000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>2793000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>2799000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>2806000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>2748000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>2743000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>2830000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>2884000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>2826000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>2796000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>2873000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>2966000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>2879000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>2820000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>2735000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>2593000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>2535000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>2556000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>2644000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>2755000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>1418000000</v>
+      </c>
+      <c r="C24">
         <v>2894000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2898000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2915000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2920000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3141000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>3489000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3491000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3454000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>3294000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>3178000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>2289000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2235000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1923000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>2643000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>2741000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>2871000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>3188000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>3400000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>3421000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>3523000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>3219000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>3336000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>3459000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>3473000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>3147000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>3289000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>3348000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>3370000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>3429000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>3395000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>4015000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>4159000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>3201000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>3278000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>3327000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>3353000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>4456000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>4579000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>5017000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>-701000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-907000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-1032000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-659000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-519000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-647000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-520000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-131000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>389000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>804000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1322000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1736000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1594000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1192000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>898000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>828000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>639000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>419000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>250000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>204000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>253000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1623000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>1577000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1000000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1570000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1576000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1608000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1662000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1573000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1542000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>1485000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>2213000000</v>
+      </c>
+      <c r="C26">
         <v>1846000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1793000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1792000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2147000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2766000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3033000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2866000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>2296000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2131000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1430000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1179000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1024000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>981000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>980000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>998000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1010000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1811000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1859000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1927000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1832000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1941000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>2110000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>2055000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>2234000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>2381000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>2576000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>2724000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>2885000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>2929000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>3043000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>3082000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>3129000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>3037000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>3123000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>3153000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>3247000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>3358000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>3621000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>3652000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>40470000000</v>
+      </c>
+      <c r="C27">
         <v>42081000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>42973000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>43626000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>44842000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>46928000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>48081000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>42289000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>40863000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>38395000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>29989000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>27550000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>26142000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>25207000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>25752000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>25502000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>25143000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>21684000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>21960000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>21499000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>20849000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>20508000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>19857000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>20334000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>19195000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>18635000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>18710000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>19153000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>19481000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>19826000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>21435000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>22114000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>21691000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>21283000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>21766000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>21515000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>21721000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>22928000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>23324000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>23856000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>60462000000</v>
+      </c>
+      <c r="C28">
         <v>64070000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>66417000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>65414000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>63146000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>63863000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>66145000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>56456000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>53588000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>54186000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>46384000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>43637000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>41080000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>40898000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>41830000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>40837000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>38982000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>35368000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>36052000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>35682000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>33612000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>33595000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>33453000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>32996000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>31481000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>31888000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>32692000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>32533000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>31895000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>33314000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>35245000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>36083000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>34199000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>34147000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>35100000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>34606000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>33828000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>35532000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>36251000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>36748000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>8970000000</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C29">
         <v>8970000000</v>
       </c>
       <c r="D29">
+        <v>8970000000</v>
+      </c>
+      <c r="E29">
         <v>8953000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>9156000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>9094000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>9042000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>8923000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>8366000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>7383000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>7307000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>6096000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>6129000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>6111000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>6096000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>6080000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>6120000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>6105000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>6091000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>6077000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>6098000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>6591000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>6577000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>6562000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>6569000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>7974000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>7965000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>7956000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>7946000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>7941000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>7938000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>7932000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>7721000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>7620000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>7636000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>7666000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>7425000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>7410000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>7354000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>7159000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>4000000</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C30">
         <v>4000000</v>
@@ -3770,7 +3956,7 @@
         <v>4000000</v>
       </c>
       <c r="J30">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="K30">
         <v>3000000</v>
@@ -3818,7 +4004,7 @@
         <v>3000000</v>
       </c>
       <c r="Z30">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="AA30">
         <v>4000000</v>
@@ -3860,242 +4046,242 @@
         <v>4000000</v>
       </c>
       <c r="AN30">
+        <v>4000000</v>
+      </c>
+      <c r="AO30">
         <v>3000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>421000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-515000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-844000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>625000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1271000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>804000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1239000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2626000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>4524000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>6365000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>7991000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>9716000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>9075000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>8050000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>6999000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>6715000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>6203000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>5367000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>4684000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>4549000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>4991000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>4354000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>3536000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>3427000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>5323000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>4358000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>3770000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>3457000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>2634000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-2182000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-3375000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-3883000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-3911000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-4835000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-5624000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-5015000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-5155000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-5534000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-6003000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>3533000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>3551000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>3552000000</v>
-      </c>
-      <c r="E32">
-        <v>3814000000</v>
       </c>
       <c r="F32">
         <v>3814000000</v>
       </c>
       <c r="G32">
+        <v>3814000000</v>
+      </c>
+      <c r="H32">
         <v>3832000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>3834000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>3897000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>3898000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>3899000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>3901000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>3599000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>3384000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>3022000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>2487000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1993000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1753000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>1720000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>1314000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>769000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>1791000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>1236000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>816000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>511000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>4064000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>3809000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>3113000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>1610000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>1090000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>826000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>576000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>367000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>237000000</v>
-      </c>
-      <c r="AI32">
-        <v>47000000</v>
       </c>
       <c r="AJ32">
         <v>47000000</v>
       </c>
       <c r="AK32">
-        <v>38000000</v>
+        <v>47000000</v>
       </c>
       <c r="AL32">
         <v>38000000</v>
@@ -4106,858 +4292,876 @@
       <c r="AN32">
         <v>38000000</v>
       </c>
+      <c r="AO32">
+        <v>38000000</v>
+      </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>4898000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3964000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>3624000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>5029000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>5431000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>4904000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>5206000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>5960000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>7003000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>8517000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>9418000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>11531000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>11301000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>10320000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>9802000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>10042000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>9469000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>8639000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>8336000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>8734000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>8970000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>8854000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>8449000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>8659000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>8439000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>7784000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>7840000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>8966000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>8555000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>4122000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>3008000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>2396000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>3864000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>3347000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>2579000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>2984000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>1728000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>1217000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>94000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>6896000000</v>
+      </c>
+      <c r="C34">
         <v>4898000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>3964000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>3624000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>5029000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>5431000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>4904000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>5206000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>5960000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>7003000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>8517000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>9418000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>11531000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>11301000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>10320000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>9802000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>10042000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>9469000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>8639000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>8336000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>8734000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>8970000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>8854000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>8449000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>8659000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>8439000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>7784000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>7840000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>8966000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>8555000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>4122000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>3008000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>2396000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>3864000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>3347000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>2579000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>2984000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>1728000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>1217000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>94000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>67358000000</v>
+      </c>
+      <c r="C35">
         <v>68968000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>70381000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>69038000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>68175000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>69294000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>71049000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>61662000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>59548000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>61189000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>54901000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>53055000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>52611000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>52199000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>52150000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>50639000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>49024000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>44837000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>44691000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>44018000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>42346000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>42565000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>42307000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>41445000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>40140000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>40327000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>40476000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>40373000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>40861000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>41869000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>39367000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>39091000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>36595000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>38011000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>38447000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>37185000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>36812000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>37260000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>37468000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>36842000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
         <v>326927000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>326744000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>326729000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>323811000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>323807000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>323611000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>323577000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>311845000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>290990000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>290982000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>247257000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>251216000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>253624000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>257729000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>264271000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>269915000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>272464000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>273018000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>279410000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>286973000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>296252000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>305010000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>311130000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>314613000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>317906000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>322932000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>339305000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>364609000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>373730000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>378839000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>382491000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>374526000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>369729000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>373570000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>373503000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>362284000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>361871000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>355890000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>333851000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>-393000000</v>
+      </c>
+      <c r="C37">
         <v>-2401000000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-3345000000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-3695000000</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-2301000000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-1911000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>-2450000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>-2161000000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>-1405000000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-376000000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>1142000000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>1950000000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>3999000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>3664000000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>2668000000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>2135000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>2360000000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>1564000000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>717000000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>292000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>672000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>889000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>739000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>314000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>504000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>262000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>-416000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>-795000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>307000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>-161000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>-4621000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>-5772000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>-6411000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>-4989000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>-5548000000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>-6346000000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>-5975000000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>-7282000000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>-7829000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>-8990000000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
+        <v>14873000000</v>
+      </c>
+      <c r="C38">
         <v>13707000000</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>13188000000</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>15334000000</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>15973000000</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>14363000000</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>18032000000</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>14643000000</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>15051000000</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>13381000000</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>11625000000</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>12401000000</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>14774000000</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>9203000000</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>8951000000</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>10104000000</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>14995000000</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>9309000000</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>9315000000</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>10365000000</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>10466000000</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>9490000000</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>8399000000</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>8351000000</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>7161000000</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>6477000000</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>6602000000</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>7520000000</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>6428000000</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>6385000000</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>6563000000</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>6566000000</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>7453000000</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>6449000000</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>6378000000</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>6939000000</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>7140000000</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>6160000000</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>5843000000</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>6586000000</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39" spans="1:41">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B39">
+        <v>31332000000</v>
+      </c>
+      <c r="C39">
         <v>32463000000</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>33306000000</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>34054000000</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>34416000000</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>34039000000</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>39354000000</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>27872000000</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>26989000000</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>27159000000</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>19088000000</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>17622000000</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>19718000000</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>14329000000</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>14395000000</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>14171000000</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>18945000000</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>14244000000</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>14386000000</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>14840000000</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>14264000000</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>13818000000</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>13048000000</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>12730000000</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>11589000000</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>11333000000</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>11287000000</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>11492000000</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>11624000000</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>11984000000</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>11548000000</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>12174000000</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>11837000000</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>11995000000</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>12222000000</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>12012000000</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>12292000000</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>11942000000</v>
       </c>
-      <c r="AM39">
+      <c r="AN39">
         <v>11847000000</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>12026000000</v>
       </c>
     </row>
